--- a/sweepResults.xlsx
+++ b/sweepResults.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
   <si>
     <t>DeltaChange</t>
   </si>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -145,11 +145,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
@@ -177,6 +187,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,195 +498,195 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-0.5</v>
+        <v>-5</v>
       </c>
       <c r="B2" s="2">
-        <v>1338.1610000000001</v>
+        <v>1506.8040000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>275</v>
+        <v>197.041</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>4.1117999999999997</v>
+        <v>4.6180000000000003</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>72.452399999999997</v>
       </c>
       <c r="G2">
-        <v>55.468000000000004</v>
+        <v>62.231000000000002</v>
       </c>
       <c r="H2">
-        <v>59.039000000000001</v>
+        <v>24.710000000000001</v>
       </c>
       <c r="I2">
-        <v>4.6349999999999998</v>
+        <v>5.1890000000000001</v>
       </c>
       <c r="J2">
-        <v>75</v>
+        <v>54.046399999999998</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-0.40000000000000002</v>
+        <v>-4</v>
       </c>
       <c r="B3" s="2">
-        <v>1335.694</v>
+        <v>1507.463</v>
       </c>
       <c r="C3" s="1">
-        <v>275</v>
+        <v>196.72300000000001</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>4.1117999999999997</v>
+        <v>4.6243999999999996</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>72.097999999999999</v>
       </c>
       <c r="G3">
-        <v>55.372999999999998</v>
+        <v>62.256999999999998</v>
       </c>
       <c r="H3">
-        <v>59.582999999999998</v>
+        <v>24.591999999999999</v>
       </c>
       <c r="I3">
-        <v>4.6269999999999998</v>
+        <v>5.1900000000000004</v>
       </c>
       <c r="J3">
-        <v>75</v>
+        <v>53.986199999999997</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.29999999999999999</v>
+        <v>-3</v>
       </c>
       <c r="B4" s="2">
-        <v>1333.2380000000001</v>
+        <v>1508.1199999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>275</v>
+        <v>196.40600000000001</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>4.1119000000000003</v>
+        <v>4.6375999999999999</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>71.358599999999996</v>
       </c>
       <c r="G4">
-        <v>55.277000000000001</v>
+        <v>62.283000000000001</v>
       </c>
       <c r="H4">
-        <v>60.130000000000003</v>
+        <v>24.475000000000001</v>
       </c>
       <c r="I4">
-        <v>4.6180000000000003</v>
+        <v>5.1909999999999998</v>
       </c>
       <c r="J4">
-        <v>75</v>
+        <v>53.926299999999998</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-0.19999999999999996</v>
+        <v>-2</v>
       </c>
       <c r="B5" s="1">
-        <v>1330.7909999999999</v>
+        <v>1508.7670000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>275</v>
+        <v>196.09399999999999</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>4.1119000000000003</v>
+        <v>4.6360999999999999</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>71.444000000000003</v>
       </c>
       <c r="G5">
-        <v>55.180999999999997</v>
+        <v>62.308999999999997</v>
       </c>
       <c r="H5">
-        <v>60.680999999999997</v>
+        <v>24.358000000000001</v>
       </c>
       <c r="I5">
-        <v>4.609</v>
+        <v>5.1920000000000002</v>
       </c>
       <c r="J5">
-        <v>75</v>
+        <v>53.866599999999998</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-0.099999999999999978</v>
+        <v>-1</v>
       </c>
       <c r="B6" s="1">
-        <v>1328.356</v>
+        <v>1509.4179999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>275</v>
+        <v>195.78100000000001</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>4.1119000000000003</v>
+        <v>4.6494999999999997</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>70.700800000000001</v>
       </c>
       <c r="G6">
-        <v>55.085000000000001</v>
+        <v>62.335000000000001</v>
       </c>
       <c r="H6">
-        <v>61.234000000000002</v>
+        <v>24.242999999999999</v>
       </c>
       <c r="I6">
-        <v>4.601</v>
+        <v>5.1929999999999996</v>
       </c>
       <c r="J6">
-        <v>75</v>
+        <v>53.807200000000002</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.3">
@@ -674,191 +694,191 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1325.933</v>
+        <v>1510.0730000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>275</v>
+        <v>195.46600000000001</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>4.1119000000000003</v>
+        <v>4.6272000000000002</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>71.941699999999997</v>
       </c>
       <c r="G7">
-        <v>54.988999999999997</v>
+        <v>62.360999999999997</v>
       </c>
       <c r="H7">
-        <v>61.789000000000001</v>
+        <v>24.126000000000001</v>
       </c>
       <c r="I7">
-        <v>4.5919999999999996</v>
+        <v>5.194</v>
       </c>
       <c r="J7">
-        <v>75</v>
+        <v>53.747999999999998</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.099999999999999978</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1323.529</v>
+        <v>1510.721</v>
       </c>
       <c r="C8" s="1">
-        <v>275</v>
+        <v>195.154</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>4.1119000000000003</v>
+        <v>4.6288</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>71.847499999999997</v>
       </c>
       <c r="G8">
-        <v>54.893000000000001</v>
+        <v>62.387</v>
       </c>
       <c r="H8">
-        <v>62.347000000000001</v>
+        <v>24.009</v>
       </c>
       <c r="I8">
-        <v>4.5830000000000002</v>
+        <v>5.1950000000000003</v>
       </c>
       <c r="J8">
-        <v>75</v>
+        <v>53.6892</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.19999999999999996</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1321.1320000000001</v>
+        <v>1511.366</v>
       </c>
       <c r="C9" s="1">
-        <v>275</v>
+        <v>194.84399999999999</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>4.1119000000000003</v>
+        <v>4.6388999999999996</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>71.285399999999996</v>
       </c>
       <c r="G9">
-        <v>54.796999999999997</v>
+        <v>62.411999999999999</v>
       </c>
       <c r="H9">
-        <v>62.906999999999996</v>
+        <v>23.893000000000001</v>
       </c>
       <c r="I9">
-        <v>4.5739999999999998</v>
+        <v>5.1950000000000003</v>
       </c>
       <c r="J9">
-        <v>75</v>
+        <v>53.630499999999998</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.29999999999999999</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1318.739</v>
+        <v>1512.009</v>
       </c>
       <c r="C10" s="1">
-        <v>275</v>
+        <v>194.536</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10">
-        <v>4.1119000000000003</v>
+        <v>4.6521999999999997</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>70.552400000000006</v>
       </c>
       <c r="G10">
-        <v>54.701000000000001</v>
+        <v>62.438000000000002</v>
       </c>
       <c r="H10">
-        <v>63.469999999999999</v>
+        <v>23.777999999999999</v>
       </c>
       <c r="I10">
-        <v>4.5659999999999998</v>
+        <v>5.1959999999999997</v>
       </c>
       <c r="J10">
-        <v>75</v>
+        <v>53.572099999999999</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.40000000000000002</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>1316.3499999999999</v>
+        <v>1512.6590000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>275</v>
+        <v>194.22499999999999</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>4.1120000000000001</v>
+        <v>4.6489000000000003</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>70.732799999999997</v>
       </c>
       <c r="G11">
-        <v>54.603999999999999</v>
+        <v>62.463999999999999</v>
       </c>
       <c r="H11">
-        <v>64.037000000000006</v>
+        <v>23.661999999999999</v>
       </c>
       <c r="I11">
-        <v>4.5570000000000004</v>
+        <v>5.1970000000000001</v>
       </c>
       <c r="J11">
-        <v>75</v>
+        <v>53.514000000000003</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>1313.9670000000001</v>
+        <v>1513.3019999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>275</v>
+        <v>193.917</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
-        <v>4.1120000000000001</v>
+        <v>4.6471</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>70.832300000000004</v>
       </c>
       <c r="G12">
-        <v>54.506999999999998</v>
+        <v>62.488999999999997</v>
       </c>
       <c r="H12">
-        <v>64.605000000000004</v>
+        <v>23.547999999999998</v>
       </c>
       <c r="I12">
-        <v>4.548</v>
+        <v>5.1980000000000004</v>
       </c>
       <c r="J12">
-        <v>75</v>
+        <v>53.456099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/sweepResults.xlsx
+++ b/sweepResults.xlsx
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -155,11 +155,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
@@ -197,6 +203,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
